--- a/examples/testdata1.xlsx
+++ b/examples/testdata1.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="dbname.tablename" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="test.testtable1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -154,16 +154,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,12 +183,12 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -249,7 +245,7 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="1" t="n">
         <v>1.1</v>
       </c>
       <c r="C2" s="0" t="n">

--- a/examples/testdata1.xlsx
+++ b/examples/testdata1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">col001</t>
   </si>
@@ -43,42 +43,23 @@
     <t xml:space="preserve">col007</t>
   </si>
   <si>
-    <t xml:space="preserve">col008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col016</t>
-  </si>
-  <si>
     <t xml:space="preserve">あああ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -154,13 +135,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -180,15 +169,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -213,57 +204,47 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>1.1</v>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1111111111111110</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>1111111110</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>123.456</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>99999.1234</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>44679.9603671528</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44679.9603671528</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -273,6 +254,9 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/examples/testdata1.xlsx
+++ b/examples/testdata1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">col001</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">あああ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“”</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
@@ -56,10 +53,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm"/>
-    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -135,7 +133,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -148,7 +146,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,10 +174,10 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.35"/>
@@ -232,18 +234,16 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,7 +256,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/examples/testdata1.xlsx
+++ b/examples/testdata1.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test.testtable1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="test.number_cols" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,33 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">col001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あああ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_bigint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c_double</t>
   </si>
 </sst>
 </file>
@@ -70,19 +61,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -133,12 +121,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,13 +163,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.35"/>
@@ -203,111 +195,40 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
+      <c r="B2" s="0" t="n">
+        <v>10101</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1111111110</v>
+        <v>1234567</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>123.456</v>
+        <v>9876543210</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>99999.1234</v>
+        <v>123.456789</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44679.9603671528</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>44679.9603671528</v>
-      </c>
+        <v>987.654321</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
